--- a/Fig1 net/Haplogroups Emar.xlsx
+++ b/Fig1 net/Haplogroups Emar.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27795" windowHeight="12315" activeTab="2"/>
+    <workbookView windowWidth="27795" windowHeight="12315"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="145">
   <si>
     <t>sample</t>
   </si>
@@ -361,6 +360,36 @@
   </si>
   <si>
     <t>Sr</t>
+  </si>
+  <si>
+    <t>Ya2.1</t>
+  </si>
+  <si>
+    <t>Yakobi</t>
+  </si>
+  <si>
+    <t>52.233907 N, 104.3189 E17</t>
+  </si>
+  <si>
+    <t>19.05,2025</t>
+  </si>
+  <si>
+    <t>Ya</t>
+  </si>
+  <si>
+    <t>Ya3</t>
+  </si>
+  <si>
+    <t>Ya4</t>
+  </si>
+  <si>
+    <t>Ya7.1</t>
+  </si>
+  <si>
+    <t>Ya7.2</t>
+  </si>
+  <si>
+    <t>Ya8.2</t>
   </si>
   <si>
     <t>Olgate1</t>
@@ -446,68 +475,19 @@
 TATTACTACAATTTTATTGCTTTTATCCTTACCAGTTCTTGCTGGAGCTATCACTATGTTACTTACTGACCGTAATCTAA
 ACACCTCTTTTTTTGACCCTAGGGGGGGAGGTGACCCAATTCTATACCAACATTTATTCTGAT</t>
   </si>
-  <si>
-    <t>Eulimnogammarus (Philolimnogammarus) viridis (Dyb.)</t>
-  </si>
-  <si>
-    <t>Eulimnogammarus (Philolimnogammarus) marituji (sp.nov. = Baz)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Шипы расположены на всех сегментах мета- и урозома, на более или менее ясно выраженных бугорках. Число шипов довольно непостоянно, у взрослых больше, чем у молодых. 
-Головной сегмент с слабо выраженным rostrum; боковые лопасти срезаны; глаза черные, почковидные.
-Верхние антенны немного короче тела, стержни их на 1/3 короче стержней нижних антенн; основной членик обычно короче головного сегмента, на нижне-переднем углу несет 2-3 шипа и такое же количество их на нижней стороне; II членик равной длины с I, также с шипами и одиночными щетинками по нижнему краю; III почти вдвое короче II, без шипов. Жгут состоит из 49—66 члеников, придаточный жгутик из 5—6 члеников.
-Нижние антенны несколько короче верхних, антеннальный конус короче III членика стебля, несущего на нижне-переднем углу пучок длинных прямых щетинок; IV членик короче V, по верхнему краю несет редкие шипы, по нижнему густые пучки щетинок; V вооружен только щетинками; жгут состоит из 16-19 члеников, также снабженных пучками щетинок.
-В palpus мандибул средний членик широкий,с выемкой по краю; концевой с щеткой, состоящей из коротких щетинок и 2 боковыми пучками; наружная пластинка максилл I пары с гребневидными иглами; внутренняя яйцевидная, с 19—20 иглами. В максиллипедах наружная пластинка довольно короткая, с тупыми иглами; внутренняя, кроме щетинок, несет 2—3 толстых зубца.
-Гнатоподы у самцов и самок в I паре с узко-миндалевидными subchelae, значительно крупнее, чем во II, вооружены 1 тупым шипом ма пальмарном крае и 2—3 острыми в проксимальной части; в II паре subchelae узкие, бокаловидные, также с одним шипом на пальмарном крае и густыми пучками щетинок по нижнему краю членика. Элимеральные пластинки в I паре ромбовидные, с несколько вытянутым нижне-передним углом; во II книзу сужены и закруглены, по переднему краю несут редкие, короткие щетинки.
-В переоподах I и II пар мероподиты расширены, карпоподиты во II паре заметно короче проподитов; все членики вооружены тонкими щетинками; мерои карпоподиты, кроме того, на верхнем крае несут шипы. Базиподиты III  пары широкие, с закругленным задним краем, в IV и V парах книзу сильно сужены и образуют небольшую приостренную лопасть, более ясно выраженную в V паре. Все базиподиты по переднему краю несут одиночные шипы. Прочие членики вооружены щетинками и длинными крепкими шипами. Когти короткие, толстые.
-B уроподах I и II пар стержни и ветви вооружены шипами. В уроподах III пары наружная ветвь широкая, с едва заметным концевым члеником, вооружена шипами и густо сидящими простыми щетинками; внутренняя в 5 и более раз короче наружной, также с шипами и простыми щетинками на вершине и по внутреннему краю.
-Telson разделен до основания, ветви его к концу сильно сужены и вооружены 2 апикальными шипами и щетинками и одним шипом и 1—2 шетинками на внешнем крае.
-Длина тела 20-26 мм
-Распространение: весь Байкал, Ангара у истока.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Тело гладкое, с боков сжатое. II и III сегменты метазома и все 3 cerмента урозома вооружены крепкими шипами. 
-Головной сегмент короткий;
-глаза крупные, черные, почковидные.
-Верхние антенны равны приблизительно половине длины тела и немного длиннее нижних; стержни их короче стержней нижних антенн; основной членик чуть длиннее головного сегмента или равен ему, с сильными шипами на нижней стороне; II немного короче основного, III вдвое короче II; оба с редкими щетинками на нижней стороне, без шипов. Жгут состоит из 36—38 члеников, придаточный жгутик из 5-6. 
-В нижних антеннах антеннальный конус почти вдвое короче III членика стержня, последний с расходящимся пучком щетинок на нижне-переднем углу, IV членик толще и немного короче V, оба с пучками длинных щетинок на нижней стороне, IV с рядом шипов на верхней.
-Жгут состоит из 14—15 члеников, также снабженных длинными щетинками на концах.
-Ротовые части — как у E. viridis.
-Гнатоподы самцов I паре с узко-миндалевидными subchelae; пальмарный
-край слегка вогнут, с крепким тупым срединным шином; граничных шипов, тесно сближенных, 3; на нижнем крае членика около 5 очень коротких,
-тулых шипиков. Во П паре subchelae бокаловидные, с 1 срединным и 2 граничными шипами и густыми пучками щетинок по верхнему и нижнему краям. Эпимеральные пластинки в I паре ромбовидные, с менее вытянутым, чем у E. viridis, нижне-передним углом; во II книзу значительно сужены.
-У самок subchelae I пары короче и шире, чем у самцов, с менее изогнутым когтем; шипы те же, что и у самцов, но слабее, мелких шипиков на, нижнем крае меньше; во II паре subchelae имеют такое же строение и вооружение, как и у самцов, но меньших размеров.
-В переоподах I и II пар мероподиты расширены, в I паре карпо- и пропо- диты равной длины, во II карпоподиты короче. В III-V парах базиподиты
-широкие, в III паре короткие, книзу лишь немного сужены, в IV и V грушевидные; крыловидный край в дистальной части образует небольшой угол, спускающийся вниз.
-В уроподах I пары ветви равной длины, во II наружная короче внутренней. И стержни и ветви вооружены шипами. В уроподах III пары наружная ветвь широкая, одночленистая, в 3,5 раза длиннее внутренней, обе вооружены шипами и густо сидящими простыми щетинками.
-Telson разделен до основания; ветви широкие, яйцевидные, с группой шипов и одиночными щетинками на вершине и 1 шипом и 1 щетинкой
-с наружной стороны.
-Длина тела 16—20 мм.
-Распространение: южная часть Байкала (Маритуй)
-</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -562,13 +542,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -578,7 +551,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -593,15 +566,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -615,15 +581,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -639,13 +606,35 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -661,31 +650,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -695,6 +667,14 @@
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -713,7 +693,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -725,55 +777,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -785,91 +849,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -881,19 +873,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -940,6 +920,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -950,21 +945,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1018,168 +998,156 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1197,28 +1165,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1540,10 +1508,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I76"/>
+  <dimension ref="A1:I82"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1552,28 +1520,28 @@
   </cols>
   <sheetData>
     <row r="1" ht="18" spans="1:8">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1581,22 +1549,22 @@
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="4">
         <v>44517</v>
       </c>
       <c r="H2" t="s">
@@ -1607,22 +1575,22 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="4">
         <v>44517</v>
       </c>
       <c r="H3" t="s">
@@ -1633,22 +1601,22 @@
       <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="4">
         <v>44517</v>
       </c>
       <c r="H4" t="s">
@@ -1659,22 +1627,22 @@
       <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="4">
         <v>44517</v>
       </c>
       <c r="H5" t="s">
@@ -1685,22 +1653,22 @@
       <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F6" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="4">
         <v>44518</v>
       </c>
       <c r="H6" t="s">
@@ -1714,22 +1682,22 @@
       <c r="A7" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F7" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="4">
         <v>44518</v>
       </c>
       <c r="H7" t="s">
@@ -1740,22 +1708,22 @@
       <c r="A8" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F8" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="4">
         <v>44518</v>
       </c>
       <c r="H8" t="s">
@@ -1766,22 +1734,22 @@
       <c r="A9" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F9" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="4">
         <v>44518</v>
       </c>
       <c r="H9" t="s">
@@ -1792,22 +1760,22 @@
       <c r="A10" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C10" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F10" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="4">
         <v>44526</v>
       </c>
       <c r="H10" t="s">
@@ -1818,22 +1786,22 @@
       <c r="A11" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C11" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F11" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="4">
         <v>44752</v>
       </c>
       <c r="H11" t="s">
@@ -1844,22 +1812,22 @@
       <c r="A12" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C12" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F12" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="4">
         <v>44752</v>
       </c>
       <c r="H12" t="s">
@@ -1870,22 +1838,22 @@
       <c r="A13" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C13" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F13" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="4">
         <v>44752</v>
       </c>
       <c r="H13" t="s">
@@ -1896,22 +1864,22 @@
       <c r="A14" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C14" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F14" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="4">
         <v>44752</v>
       </c>
       <c r="H14" t="s">
@@ -1922,22 +1890,22 @@
       <c r="A15" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C15" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F15" t="s">
         <v>43</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="4">
         <v>45499</v>
       </c>
       <c r="H15" t="s">
@@ -1948,22 +1916,22 @@
       <c r="A16" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F16" t="s">
         <v>43</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="4">
         <v>45499</v>
       </c>
       <c r="H16" t="s">
@@ -1977,22 +1945,22 @@
       <c r="A17" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C17" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F17" t="s">
         <v>43</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="4">
         <v>45499</v>
       </c>
       <c r="H17" t="s">
@@ -2003,22 +1971,22 @@
       <c r="A18" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C18" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F18" t="s">
         <v>43</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="4">
         <v>45499</v>
       </c>
       <c r="H18" t="s">
@@ -2029,22 +1997,22 @@
       <c r="A19" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C19" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F19" t="s">
         <v>43</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="4">
         <v>45499</v>
       </c>
       <c r="H19" t="s">
@@ -2055,7 +2023,7 @@
       <c r="A20" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C20" t="s">
@@ -2064,13 +2032,13 @@
       <c r="D20" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F20" t="s">
         <v>52</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="4">
         <v>45540</v>
       </c>
       <c r="H20" t="s">
@@ -2081,7 +2049,7 @@
       <c r="A21" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C21" t="s">
@@ -2090,13 +2058,13 @@
       <c r="D21" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F21" t="s">
         <v>52</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="4">
         <v>45540</v>
       </c>
       <c r="H21" t="s">
@@ -2107,7 +2075,7 @@
       <c r="A22" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C22" t="s">
@@ -2116,13 +2084,13 @@
       <c r="D22" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F22" t="s">
         <v>52</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="4">
         <v>45540</v>
       </c>
       <c r="H22" t="s">
@@ -2133,7 +2101,7 @@
       <c r="A23" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C23" t="s">
@@ -2142,13 +2110,13 @@
       <c r="D23" t="s">
         <v>51</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F23" t="s">
         <v>52</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="4">
         <v>45540</v>
       </c>
       <c r="H23" t="s">
@@ -2159,10 +2127,10 @@
       <c r="A24" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D24" t="s">
@@ -2171,7 +2139,7 @@
       <c r="F24" t="s">
         <v>60</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="4">
         <v>44942</v>
       </c>
       <c r="H24" t="s">
@@ -2182,10 +2150,10 @@
       <c r="A25" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D25" t="s">
@@ -2201,26 +2169,26 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" s="7" customFormat="1" spans="1:8">
-      <c r="A26" s="7" t="s">
+    <row r="26" s="3" customFormat="1" spans="1:8">
+      <c r="A26" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="3" t="s">
         <v>59</v>
       </c>
       <c r="F26" t="s">
         <v>60</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="3">
         <v>2013</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H26" s="3" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2228,7 +2196,7 @@
       <c r="A27" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="6" t="s">
         <v>58</v>
       </c>
       <c r="C27" t="s">
@@ -2251,7 +2219,7 @@
       <c r="A28" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="6" t="s">
         <v>58</v>
       </c>
       <c r="C28" t="s">
@@ -2263,7 +2231,7 @@
       <c r="F28" t="s">
         <v>64</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="4">
         <v>45166</v>
       </c>
       <c r="H28" t="s">
@@ -2274,7 +2242,7 @@
       <c r="A29" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="6" t="s">
         <v>58</v>
       </c>
       <c r="C29" t="s">
@@ -2286,7 +2254,7 @@
       <c r="F29" t="s">
         <v>60</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G29" s="4">
         <v>45752</v>
       </c>
       <c r="H29" t="s">
@@ -2297,7 +2265,7 @@
       <c r="A30" t="s">
         <v>70</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="6" t="s">
         <v>58</v>
       </c>
       <c r="C30" t="s">
@@ -2309,7 +2277,7 @@
       <c r="F30" t="s">
         <v>60</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G30" s="4">
         <v>45752</v>
       </c>
       <c r="H30" t="s">
@@ -2320,7 +2288,7 @@
       <c r="A31" t="s">
         <v>71</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="6" t="s">
         <v>58</v>
       </c>
       <c r="C31" t="s">
@@ -2332,7 +2300,7 @@
       <c r="F31" t="s">
         <v>60</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G31" s="4">
         <v>45752</v>
       </c>
       <c r="H31" t="s">
@@ -2343,7 +2311,7 @@
       <c r="A32" t="s">
         <v>72</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="6" t="s">
         <v>58</v>
       </c>
       <c r="C32" t="s">
@@ -2355,7 +2323,7 @@
       <c r="F32" t="s">
         <v>60</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G32" s="4">
         <v>45752</v>
       </c>
       <c r="H32" t="s">
@@ -2366,7 +2334,7 @@
       <c r="A33" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="6" t="s">
         <v>58</v>
       </c>
       <c r="C33" t="s">
@@ -2378,7 +2346,7 @@
       <c r="F33" t="s">
         <v>60</v>
       </c>
-      <c r="G33" s="8">
+      <c r="G33" s="4">
         <v>45752</v>
       </c>
       <c r="H33" t="s">
@@ -2389,7 +2357,7 @@
       <c r="A34" t="s">
         <v>74</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="6" t="s">
         <v>58</v>
       </c>
       <c r="C34" t="s">
@@ -2401,7 +2369,7 @@
       <c r="F34" t="s">
         <v>60</v>
       </c>
-      <c r="G34" s="8">
+      <c r="G34" s="4">
         <v>45752</v>
       </c>
       <c r="H34" t="s">
@@ -2412,7 +2380,7 @@
       <c r="A35" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="6" t="s">
         <v>58</v>
       </c>
       <c r="C35" t="s">
@@ -2424,7 +2392,7 @@
       <c r="F35" t="s">
         <v>60</v>
       </c>
-      <c r="G35" s="8">
+      <c r="G35" s="4">
         <v>45752</v>
       </c>
       <c r="H35" t="s">
@@ -2435,7 +2403,7 @@
       <c r="A36" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="6" t="s">
         <v>58</v>
       </c>
       <c r="C36" t="s">
@@ -2447,7 +2415,7 @@
       <c r="F36" t="s">
         <v>60</v>
       </c>
-      <c r="G36" s="8">
+      <c r="G36" s="4">
         <v>45752</v>
       </c>
       <c r="H36" t="s">
@@ -2458,7 +2426,7 @@
       <c r="A37" t="s">
         <v>78</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="6" t="s">
         <v>58</v>
       </c>
       <c r="C37" t="s">
@@ -2470,7 +2438,7 @@
       <c r="F37" t="s">
         <v>60</v>
       </c>
-      <c r="G37" s="8">
+      <c r="G37" s="4">
         <v>45752</v>
       </c>
       <c r="H37" t="s">
@@ -2481,7 +2449,7 @@
       <c r="A38" t="s">
         <v>79</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="6" t="s">
         <v>58</v>
       </c>
       <c r="C38" t="s">
@@ -2493,7 +2461,7 @@
       <c r="F38" t="s">
         <v>60</v>
       </c>
-      <c r="G38" s="8">
+      <c r="G38" s="4">
         <v>45752</v>
       </c>
       <c r="H38" t="s">
@@ -2504,7 +2472,7 @@
       <c r="A39" t="s">
         <v>80</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="6" t="s">
         <v>58</v>
       </c>
       <c r="C39" t="s">
@@ -2516,7 +2484,7 @@
       <c r="F39" t="s">
         <v>60</v>
       </c>
-      <c r="G39" s="8">
+      <c r="G39" s="4">
         <v>45752</v>
       </c>
       <c r="H39" t="s">
@@ -2527,7 +2495,7 @@
       <c r="A40" t="s">
         <v>81</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="6" t="s">
         <v>58</v>
       </c>
       <c r="C40" t="s">
@@ -2539,7 +2507,7 @@
       <c r="F40" t="s">
         <v>60</v>
       </c>
-      <c r="G40" s="8">
+      <c r="G40" s="4">
         <v>45752</v>
       </c>
       <c r="H40" t="s">
@@ -2550,7 +2518,7 @@
       <c r="A41" t="s">
         <v>82</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C41" t="s">
@@ -2562,7 +2530,7 @@
       <c r="F41" t="s">
         <v>85</v>
       </c>
-      <c r="G41" s="8">
+      <c r="G41" s="4">
         <v>45075</v>
       </c>
       <c r="H41" t="s">
@@ -2573,7 +2541,7 @@
       <c r="A42" t="s">
         <v>87</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C42" t="s">
@@ -2585,7 +2553,7 @@
       <c r="F42" t="s">
         <v>85</v>
       </c>
-      <c r="G42" s="8">
+      <c r="G42" s="4">
         <v>45075</v>
       </c>
       <c r="H42" t="s">
@@ -2596,7 +2564,7 @@
       <c r="A43" t="s">
         <v>88</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C43" t="s">
@@ -2608,7 +2576,7 @@
       <c r="F43" t="s">
         <v>90</v>
       </c>
-      <c r="G43" s="8">
+      <c r="G43" s="4">
         <v>45467</v>
       </c>
       <c r="H43" t="s">
@@ -2619,7 +2587,7 @@
       <c r="A44" t="s">
         <v>92</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C44" t="s">
@@ -2631,7 +2599,7 @@
       <c r="F44" t="s">
         <v>90</v>
       </c>
-      <c r="G44" s="8">
+      <c r="G44" s="4">
         <v>45467</v>
       </c>
       <c r="H44" t="s">
@@ -2642,7 +2610,7 @@
       <c r="A45" t="s">
         <v>93</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C45" t="s">
@@ -2654,7 +2622,7 @@
       <c r="F45" t="s">
         <v>90</v>
       </c>
-      <c r="G45" s="8">
+      <c r="G45" s="4">
         <v>45467</v>
       </c>
       <c r="H45" t="s">
@@ -2665,7 +2633,7 @@
       <c r="A46" t="s">
         <v>94</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C46" t="s">
@@ -2677,7 +2645,7 @@
       <c r="F46" t="s">
         <v>90</v>
       </c>
-      <c r="G46" s="8">
+      <c r="G46" s="4">
         <v>45467</v>
       </c>
       <c r="H46" t="s">
@@ -2688,7 +2656,7 @@
       <c r="A47" t="s">
         <v>95</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C47" t="s">
@@ -2700,7 +2668,7 @@
       <c r="F47" t="s">
         <v>90</v>
       </c>
-      <c r="G47" s="8">
+      <c r="G47" s="4">
         <v>45467</v>
       </c>
       <c r="H47" t="s">
@@ -2711,7 +2679,7 @@
       <c r="A48" t="s">
         <v>96</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C48" t="s">
@@ -2723,7 +2691,7 @@
       <c r="F48" t="s">
         <v>90</v>
       </c>
-      <c r="G48" s="8">
+      <c r="G48" s="4">
         <v>45467</v>
       </c>
       <c r="H48" t="s">
@@ -2734,7 +2702,7 @@
       <c r="A49" t="s">
         <v>97</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C49" t="s">
@@ -2746,7 +2714,7 @@
       <c r="F49" t="s">
         <v>99</v>
       </c>
-      <c r="G49" s="8">
+      <c r="G49" s="4">
         <v>44769</v>
       </c>
       <c r="H49" t="s">
@@ -2757,7 +2725,7 @@
       <c r="A50" t="s">
         <v>101</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="6" t="s">
         <v>58</v>
       </c>
       <c r="C50" t="s">
@@ -2769,7 +2737,7 @@
       <c r="F50" t="s">
         <v>99</v>
       </c>
-      <c r="G50" s="8">
+      <c r="G50" s="4">
         <v>44769</v>
       </c>
       <c r="H50" t="s">
@@ -2780,7 +2748,7 @@
       <c r="A51" t="s">
         <v>102</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="6" t="s">
         <v>58</v>
       </c>
       <c r="C51" t="s">
@@ -2792,7 +2760,7 @@
       <c r="F51" t="s">
         <v>99</v>
       </c>
-      <c r="G51" s="8">
+      <c r="G51" s="4">
         <v>44769</v>
       </c>
       <c r="H51" t="s">
@@ -2803,7 +2771,7 @@
       <c r="A52" t="s">
         <v>103</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C52" t="s">
@@ -2815,7 +2783,7 @@
       <c r="F52" t="s">
         <v>99</v>
       </c>
-      <c r="G52" s="8">
+      <c r="G52" s="4">
         <v>44769</v>
       </c>
       <c r="H52" t="s">
@@ -2826,7 +2794,7 @@
       <c r="A53" t="s">
         <v>104</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C53" t="s">
@@ -2838,7 +2806,7 @@
       <c r="F53" t="s">
         <v>99</v>
       </c>
-      <c r="G53" s="8">
+      <c r="G53" s="4">
         <v>44769</v>
       </c>
       <c r="H53" t="s">
@@ -2849,7 +2817,7 @@
       <c r="A54" t="s">
         <v>105</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="6" t="s">
         <v>58</v>
       </c>
       <c r="C54" t="s">
@@ -2861,7 +2829,7 @@
       <c r="F54" t="s">
         <v>99</v>
       </c>
-      <c r="G54" s="8">
+      <c r="G54" s="4">
         <v>44769</v>
       </c>
       <c r="H54" t="s">
@@ -2872,7 +2840,7 @@
       <c r="A55" t="s">
         <v>106</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C55" t="s">
@@ -2884,7 +2852,7 @@
       <c r="F55" t="s">
         <v>99</v>
       </c>
-      <c r="G55" s="8">
+      <c r="G55" s="4">
         <v>44769</v>
       </c>
       <c r="H55" t="s">
@@ -2895,7 +2863,7 @@
       <c r="A56" t="s">
         <v>107</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C56" t="s">
@@ -2907,7 +2875,7 @@
       <c r="F56" t="s">
         <v>99</v>
       </c>
-      <c r="G56" s="8">
+      <c r="G56" s="4">
         <v>44769</v>
       </c>
       <c r="H56" t="s">
@@ -2918,7 +2886,7 @@
       <c r="A57" t="s">
         <v>108</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="6" t="s">
         <v>58</v>
       </c>
       <c r="C57" t="s">
@@ -2930,7 +2898,7 @@
       <c r="F57" t="s">
         <v>99</v>
       </c>
-      <c r="G57" s="8">
+      <c r="G57" s="4">
         <v>44769</v>
       </c>
       <c r="H57" t="s">
@@ -2941,7 +2909,7 @@
       <c r="A58" t="s">
         <v>109</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C58" t="s">
@@ -2953,7 +2921,7 @@
       <c r="F58" t="s">
         <v>99</v>
       </c>
-      <c r="G58" s="8">
+      <c r="G58" s="4">
         <v>44769</v>
       </c>
       <c r="H58" t="s">
@@ -2964,7 +2932,7 @@
       <c r="A59" t="s">
         <v>110</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C59" t="s">
@@ -2976,7 +2944,7 @@
       <c r="F59" t="s">
         <v>99</v>
       </c>
-      <c r="G59" s="8">
+      <c r="G59" s="4">
         <v>44769</v>
       </c>
       <c r="H59" t="s">
@@ -2987,10 +2955,10 @@
       <c r="A60" t="s">
         <v>111</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D60" t="s">
@@ -2999,155 +2967,311 @@
       <c r="F60" t="s">
         <v>113</v>
       </c>
-      <c r="G60" s="8">
+      <c r="G60" s="4">
         <v>45166</v>
       </c>
       <c r="H60" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" ht="15" spans="1:8">
       <c r="A61" t="s">
         <v>115</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C61" t="s">
+        <v>50</v>
+      </c>
+      <c r="D61" t="s">
         <v>116</v>
       </c>
-      <c r="C61" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="E61" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F61" t="s">
         <v>117</v>
       </c>
-      <c r="F61" t="s">
+      <c r="G61" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="G61" s="8">
-        <v>45387</v>
       </c>
       <c r="H61" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" ht="15" spans="1:8">
       <c r="A62" t="s">
         <v>120</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C62" t="s">
+        <v>50</v>
+      </c>
+      <c r="D62" t="s">
         <v>116</v>
       </c>
-      <c r="C62" s="7"/>
-      <c r="D62" t="s">
+      <c r="E62" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F62" t="s">
         <v>117</v>
       </c>
-      <c r="F62" t="s">
+      <c r="G62" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="G62" s="8">
-        <v>45387</v>
       </c>
       <c r="H62" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" ht="15" spans="1:8">
       <c r="A63" t="s">
         <v>121</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C63" t="s">
+        <v>50</v>
+      </c>
+      <c r="D63" t="s">
         <v>116</v>
       </c>
-      <c r="C63" t="s">
-        <v>19</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="E63" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F63" t="s">
         <v>117</v>
       </c>
-      <c r="F63" t="s">
+      <c r="G63" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="G63" s="8">
-        <v>45387</v>
       </c>
       <c r="H63" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" ht="15" spans="1:8">
       <c r="A64" t="s">
         <v>122</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B64" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C64" t="s">
+        <v>50</v>
+      </c>
+      <c r="D64" t="s">
+        <v>116</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F64" t="s">
+        <v>117</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H64" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="65" ht="15" spans="1:8">
+      <c r="A65" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
+      <c r="B65" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C65" t="s">
+        <v>50</v>
+      </c>
+      <c r="D65" t="s">
+        <v>116</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F65" t="s">
+        <v>117</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H65" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="66" ht="15" spans="1:8">
+      <c r="A66" t="s">
         <v>124</v>
       </c>
-      <c r="B65" s="10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
+      <c r="B66" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C66" t="s">
+        <v>50</v>
+      </c>
+      <c r="D66" t="s">
+        <v>116</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F66" t="s">
+        <v>117</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H66" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" t="s">
         <v>125</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B67" s="6" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
+      <c r="C67" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D67" t="s">
         <v>127</v>
       </c>
-      <c r="B67" s="10" t="s">
+      <c r="F67" t="s">
+        <v>128</v>
+      </c>
+      <c r="G67" s="4">
+        <v>45387</v>
+      </c>
+      <c r="H67" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" t="s">
+        <v>130</v>
+      </c>
+      <c r="B68" s="6" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="68" s="7" customFormat="1" spans="1:8">
-      <c r="A68" s="7" t="s">
+      <c r="C68" s="3"/>
+      <c r="D68" t="s">
+        <v>127</v>
+      </c>
+      <c r="F68" t="s">
         <v>128</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="G68" s="4">
+        <v>45387</v>
+      </c>
+      <c r="H68" t="s">
         <v>129</v>
       </c>
-      <c r="D68" s="7" t="s">
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" t="s">
+        <v>131</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C69" t="s">
+        <v>19</v>
+      </c>
+      <c r="D69" t="s">
+        <v>127</v>
+      </c>
+      <c r="F69" t="s">
+        <v>128</v>
+      </c>
+      <c r="G69" s="4">
+        <v>45387</v>
+      </c>
+      <c r="H69" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>132</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>134</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>135</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>137</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="74" s="3" customFormat="1" spans="1:8">
+      <c r="A74" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D74" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F68" s="7" t="s">
+      <c r="F74" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="H68" s="7" t="s">
+      <c r="H74" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="72" ht="15" spans="5:5">
-      <c r="E72" s="12"/>
-    </row>
-    <row r="73" spans="5:9">
-      <c r="E73" s="13"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="14"/>
-      <c r="H73" s="13"/>
-      <c r="I73" s="13"/>
-    </row>
-    <row r="74" spans="5:9">
-      <c r="E74" s="15"/>
-      <c r="F74" s="15"/>
-      <c r="G74" s="16"/>
-      <c r="H74" s="15"/>
-      <c r="I74" s="15"/>
-    </row>
-    <row r="75" spans="5:9">
-      <c r="E75" s="15"/>
-      <c r="F75" s="15"/>
-      <c r="G75" s="17"/>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-    </row>
-    <row r="76" spans="5:5">
-      <c r="E76" s="18"/>
+    <row r="78" ht="15" spans="5:5">
+      <c r="E78" s="8"/>
+    </row>
+    <row r="79" spans="5:9">
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
+    </row>
+    <row r="80" spans="5:9">
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="11"/>
+    </row>
+    <row r="81" spans="5:9">
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="11"/>
+    </row>
+    <row r="82" spans="5:5">
+      <c r="E82" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3170,39 +3294,39 @@
   </cols>
   <sheetData>
     <row r="1" ht="18" spans="1:8">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D2" t="s">
@@ -3211,24 +3335,24 @@
       <c r="E2" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="4">
         <v>45752</v>
       </c>
       <c r="G2" t="s">
         <v>61</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>132</v>
+      <c r="H2" s="5" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D3" t="s">
@@ -3237,24 +3361,24 @@
       <c r="E3" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="4">
         <v>45752</v>
       </c>
       <c r="G3" t="s">
         <v>61</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>133</v>
+      <c r="H3" s="5" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D4" t="s">
@@ -3263,245 +3387,18 @@
       <c r="E4" t="s">
         <v>60</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="4">
         <v>45752</v>
       </c>
       <c r="G4" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>134</v>
+      <c r="H4" s="5" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="7:7">
-      <c r="G18" s="9"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C54"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
-  <cols>
-    <col min="1" max="1" width="91.05" customWidth="1"/>
-    <col min="3" max="3" width="72.6666666666667" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="409.5" spans="1:3">
-      <c r="A3" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:3">
-      <c r="A4" s="3"/>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:3">
-      <c r="A5" s="3"/>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:3">
-      <c r="A6" s="3"/>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:3">
-      <c r="A7" s="3"/>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:3">
-      <c r="A8" s="3"/>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:3">
-      <c r="A9" s="3"/>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:3">
-      <c r="A10" s="3"/>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:3">
-      <c r="A11" s="3"/>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:3">
-      <c r="A12" s="3"/>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:3">
-      <c r="A13" s="3"/>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="1:3">
-      <c r="A14" s="3"/>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:3">
-      <c r="A15" s="3"/>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="1:3">
-      <c r="A16" s="3"/>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="1:3">
-      <c r="A17" s="3"/>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:3">
-      <c r="A18" s="3"/>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="1:3">
-      <c r="A19" s="3"/>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="1:3">
-      <c r="A20" s="3"/>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="1:3">
-      <c r="A21" s="3"/>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="1:3">
-      <c r="A22" s="3"/>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="1:3">
-      <c r="A23" s="3"/>
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="1:3">
-      <c r="A24" s="3"/>
-      <c r="C24" s="3"/>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="1:3">
-      <c r="A25" s="3"/>
-      <c r="C25" s="3"/>
-    </row>
-    <row r="26" s="1" customFormat="1" spans="1:3">
-      <c r="A26" s="3"/>
-      <c r="C26" s="3"/>
-    </row>
-    <row r="27" s="1" customFormat="1" spans="1:3">
-      <c r="A27" s="3"/>
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" s="1" customFormat="1" spans="1:3">
-      <c r="A28" s="3"/>
-      <c r="C28" s="3"/>
-    </row>
-    <row r="29" s="1" customFormat="1" spans="1:3">
-      <c r="A29" s="3"/>
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" s="1" customFormat="1" spans="1:3">
-      <c r="A30" s="3"/>
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" s="1" customFormat="1" spans="1:3">
-      <c r="A31" s="3"/>
-      <c r="C31" s="3"/>
-    </row>
-    <row r="32" s="1" customFormat="1" spans="1:3">
-      <c r="A32" s="3"/>
-      <c r="C32" s="3"/>
-    </row>
-    <row r="33" s="1" customFormat="1" spans="1:3">
-      <c r="A33" s="3"/>
-      <c r="C33" s="3"/>
-    </row>
-    <row r="34" s="1" customFormat="1" spans="1:3">
-      <c r="A34" s="3"/>
-      <c r="C34" s="3"/>
-    </row>
-    <row r="35" s="1" customFormat="1" spans="1:3">
-      <c r="A35" s="3"/>
-      <c r="C35" s="3"/>
-    </row>
-    <row r="36" s="1" customFormat="1" spans="1:3">
-      <c r="A36" s="3"/>
-      <c r="C36" s="3"/>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="4"/>
-      <c r="C37" s="4"/>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="4"/>
-      <c r="C38" s="4"/>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="4"/>
-      <c r="C39" s="4"/>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="4"/>
-      <c r="C40" s="4"/>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="1"/>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="1"/>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="1"/>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="1"/>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="1"/>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="1"/>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="1"/>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="1"/>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="1"/>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="1"/>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="1"/>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="1"/>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="1"/>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="1"/>
+      <c r="G18" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
